--- a/docs/cda-logical-model/StructureDefinition-cs-prim.xlsx
+++ b/docs/cda-logical-model/StructureDefinition-cs-prim.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="93">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T15:52:41+01:00</t>
+    <t>2023-02-07T19:43:49+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,7 +90,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Kind</t>
@@ -235,6 +235,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Primitive Type code</t>
@@ -600,40 +604,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.65234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.65234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.8984375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.58203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.58203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="9.734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.91015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="14.21484375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="17.07421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.30078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.73046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="19.80078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="17.60546875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="17.4453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -775,13 +779,13 @@
         <v>71</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -849,10 +853,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -863,7 +867,7 @@
         <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>71</v>
@@ -875,13 +879,13 @@
         <v>71</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -932,13 +936,13 @@
         <v>71</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>71</v>
@@ -949,10 +953,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -975,13 +979,13 @@
         <v>71</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1032,7 +1036,7 @@
         <v>71</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>72</v>
@@ -1044,15 +1048,15 @@
         <v>71</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1063,7 +1067,7 @@
         <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>71</v>
@@ -1075,13 +1079,13 @@
         <v>71</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1132,13 +1136,13 @@
         <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>71</v>
